--- a/Database/DataDictionary.xlsx
+++ b/Database/DataDictionary.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ea727b8c5a8227d/Cert IV 02/Final Assessment/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{F93F2D16-D0FE-401C-A7FD-BE44B624C20A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{135448AA-D1B8-4743-9B05-B181516CF2FB}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{F93F2D16-D0FE-401C-A7FD-BE44B624C20A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D54F91F7-BE4D-4579-A021-1E742234870C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{B5A7D9C3-C7B6-4925-8D6A-33420DF68401}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/Database/DataDictionary.xlsx
+++ b/Database/DataDictionary.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ea727b8c5a8227d/Cert IV 02/Final Assessment/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{F93F2D16-D0FE-401C-A7FD-BE44B624C20A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D54F91F7-BE4D-4579-A021-1E742234870C}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{F93F2D16-D0FE-401C-A7FD-BE44B624C20A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7B302890-5DAA-4021-AB53-E6D54A28AD5A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{B5A7D9C3-C7B6-4925-8D6A-33420DF68401}"/>
   </bookViews>
   <sheets>
-    <sheet name="1.1" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Field Name</t>
   </si>
@@ -83,19 +83,61 @@
     <t>BabGlass</t>
   </si>
   <si>
-    <t>Player's selection</t>
-  </si>
-  <si>
     <t>"Rock" "Scissors" "Paper"</t>
   </si>
   <si>
-    <t>PK Unique ROUND identifier</t>
-  </si>
-  <si>
     <t>13/12/2020 3:31pm</t>
   </si>
   <si>
     <t>Max</t>
+  </si>
+  <si>
+    <t>GAME</t>
+  </si>
+  <si>
+    <t>DATETIME_STARTED</t>
+  </si>
+  <si>
+    <t>PK Unique GAME identifier</t>
+  </si>
+  <si>
+    <t>RESULT</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>GAME result</t>
+  </si>
+  <si>
+    <t>"W" "L" "D"</t>
+  </si>
+  <si>
+    <t>NUMTURNS</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>Number of ROUNDS in the GAME</t>
+  </si>
+  <si>
+    <t>1 3 5</t>
+  </si>
+  <si>
+    <t>FK references GAME</t>
+  </si>
+  <si>
+    <t>TURNNUM</t>
+  </si>
+  <si>
+    <t>PK ROUND identifier</t>
+  </si>
+  <si>
+    <t>1 2 3 4 5</t>
+  </si>
+  <si>
+    <t>PLAYER selection</t>
   </si>
 </sst>
 </file>
@@ -138,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -161,11 +203,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -173,7 +224,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -489,24 +549,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4CA6B3-0D97-4D2A-AECE-872120C58431}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F05DF4-8D27-473C-A803-DDE852D2ADCE}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.36328125" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
-    <col min="3" max="3" width="19.6328125" customWidth="1"/>
-    <col min="4" max="4" width="36.1796875" customWidth="1"/>
-    <col min="5" max="5" width="31.7265625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,16 +582,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -549,16 +608,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -575,61 +634,156 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
         <v>20</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C13" s="2">
         <v>8</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C14" s="2">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
